--- a/medicine/Enfance/La_Couleur_du_crime_(roman)/La_Couleur_du_crime_(roman).xlsx
+++ b/medicine/Enfance/La_Couleur_du_crime_(roman)/La_Couleur_du_crime_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Couleur du crime est un roman policier historique écrit par Martine Pouchain paru en 2006 aux éditions Flammarion dans la collection Castor Poche et se déroulant à Amiens, ville dont l'auteur est originaire.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amiens, 1269. Mélisande est une jeune fille de seize ans qui se met en tête d'enquêter sur le meurtre de sa nourrice, Cézeille. Gervaise, la sœur de celle-ci, était morte peu de temps auparavant et l'enquête de Mélisande lui fait rencontrer les personnes que soignait Cézeille, un jeune aveugle et le voisin bougon. Ce dernier a vu quelques personnes rendre visite à la victime qui avait voulu rencontrer l'échevin sans succès juste avant de mourir : les révélations qu'elle avait prévu de faire sont sans doute le mobile du meurtre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amiens, 1269. Mélisande est une jeune fille de seize ans qui se met en tête d'enquêter sur le meurtre de sa nourrice, Cézeille. Gervaise, la sœur de celle-ci, était morte peu de temps auparavant et l'enquête de Mélisande lui fait rencontrer les personnes que soignait Cézeille, un jeune aveugle et le voisin bougon. Ce dernier a vu quelques personnes rendre visite à la victime qui avait voulu rencontrer l'échevin sans succès juste avant de mourir : les révélations qu'elle avait prévu de faire sont sans doute le mobile du meurtre.
 Un des visiteurs est Beaudon le Bossu, que Mélisande côtoie lors de leur cours commun sur les simples chez l'apothicaire. Beaudon, ainsi que sa très belle sœur Hermine ont été recueillis à la mort de leur père Eudes par leur oncle, Willement Hellequin, riche marchand de guède. Gervaise avait travaillé vingt ans chez ce dernier avant d'être congédié, la maisonnée de Hallequin semblant ne plus être dirigée par Willement depuis qu'il a recueilli ses nouveaux héritiers : le contremaître gère seul l'atelier et les foulons, Hellequin semble dilapider son argent alors que jusque-là il était plutôt avare.
 De plus le mariage grandiose qui est célébré entre la belle Hermine et Thomas le Jai, issu lui d'une riche famille de drapiers, semble avoir été arrangé...
 L'atelier où Gervaise confectionnait ses potions et ses onguents a été complètement détruit, visiblement pour faire disparaître ou voler quelque chose. Même le jardin a été fouillé et une femme ayant travaillé avec elle au service des Hellequin avoue à Mélisande que Gervaise a extorqué de l'argent à son employeur avant de se faire renvoyer. Ce changement d'attitude correspond au retour d'Hellequin d'une visite à son frère mourant, à l'issue de laquelle il est revenu avec son neveu et sa nièce.
@@ -547,7 +561,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mélisande est une jeune fille de dix-sept ans, qui étudie la botanique avec le frère Arnolphe, l'apothicaire de l'Ostelerie Dieu. Elle apprend les simples et a eu le privilège de suivre un enseignement habituellement réservé aux garçons.
 Son père, Pierre de Bourriane est maître verrier à Amiens, il est veuf et sa maison est entretenue par la servante Bertrade.
